--- a/nablarch-handson-app-web/src/test/java/com/nablarch/example/app/web/action/AuthenticationActionRequestTest.xlsx
+++ b/nablarch-handson-app-web/src/test/java/com/nablarch/example/app/web/action/AuthenticationActionRequestTest.xlsx
@@ -196,10 +196,6 @@
     <rPh sb="63" eb="65">
       <t>サクジョ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>302</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -578,6 +574,10 @@
   </si>
   <si>
     <t>userPassword</t>
+  </si>
+  <si>
+    <t>303</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1249,7 +1249,7 @@
     <row r="3" spans="1:16" s="25" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B4" s="26"/>
       <c r="C4" s="26"/>
@@ -1269,94 +1269,94 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="C5" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="D5" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="E5" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="44" t="s">
+      <c r="F5" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="F5" s="44" t="s">
+      <c r="G5" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="G5" s="44" t="s">
+      <c r="H5" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="H5" s="44" t="s">
+      <c r="I5" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="I5" s="44" t="s">
+      <c r="J5" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="J5" s="44" t="s">
+      <c r="K5" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="K5" s="44" t="s">
+      <c r="L5" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="L5" s="44" t="s">
+      <c r="M5" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="M5" s="28" t="s">
+      <c r="N5" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="N5" s="44" t="s">
+      <c r="O5" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="O5" s="44" t="s">
+      <c r="P5" s="44" t="s">
         <v>88</v>
-      </c>
-      <c r="P5" s="44" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="D8" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="E8" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="F8" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="36" t="s">
+      <c r="G8" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="H8" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="36" t="s">
+      <c r="I8" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="36" t="s">
+      <c r="J8" s="36" t="s">
         <v>45</v>
-      </c>
-      <c r="J8" s="36" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B10" s="26"/>
       <c r="C10" s="26"/>
@@ -1379,10 +1379,10 @@
         <v>19</v>
       </c>
       <c r="B11" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="36" t="s">
         <v>33</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1725,13 +1725,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14" t="s">
@@ -1740,7 +1740,7 @@
       <c r="G4" s="33"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -2271,7 +2271,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -2529,13 +2529,13 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -2793,7 +2793,7 @@
     </row>
     <row r="11" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A11" s="47" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
@@ -3341,7 +3341,7 @@
     </row>
     <row r="18" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -3683,13 +3683,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14" t="s">
@@ -3698,7 +3698,7 @@
       <c r="G4" s="33"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -4229,7 +4229,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -4487,13 +4487,13 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -4751,7 +4751,7 @@
     </row>
     <row r="11" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A11" s="47" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
@@ -5299,7 +5299,7 @@
     </row>
     <row r="18" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -5641,24 +5641,24 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c r="G4" s="33"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -6445,7 +6445,7 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>22</v>
@@ -6978,10 +6978,10 @@
         <v>8</v>
       </c>
       <c r="B14" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="28" t="s">
         <v>106</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>107</v>
       </c>
       <c r="D14" s="19"/>
     </row>
@@ -6990,10 +6990,10 @@
         <v>1</v>
       </c>
       <c r="B15" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="38" t="s">
         <v>50</v>
-      </c>
-      <c r="C15" s="38" t="s">
-        <v>51</v>
       </c>
       <c r="D15" s="19"/>
     </row>
@@ -7005,7 +7005,7 @@
     </row>
     <row r="17" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:255" x14ac:dyDescent="0.35">
@@ -7013,31 +7013,31 @@
         <v>19</v>
       </c>
       <c r="B18" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="36" t="s">
+      <c r="D18" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="36" t="s">
+      <c r="E18" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="36" t="s">
+      <c r="F18" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="36" t="s">
+      <c r="G18" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="G18" s="36" t="s">
+      <c r="H18" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="H18" s="36" t="s">
+      <c r="I18" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="I18" s="36" t="s">
+      <c r="J18" s="36" t="s">
         <v>45</v>
-      </c>
-      <c r="J18" s="36" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:255" x14ac:dyDescent="0.35">
@@ -7045,29 +7045,29 @@
         <v>22</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D19" s="32" t="s">
         <v>26</v>
       </c>
       <c r="E19" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="F19" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" s="37" t="s">
+      <c r="H19" s="37" t="s">
         <v>57</v>
-      </c>
-      <c r="H19" s="37" t="s">
-        <v>58</v>
       </c>
       <c r="I19" s="41"/>
       <c r="J19" s="37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:255" ht="15" x14ac:dyDescent="0.35">
@@ -7078,7 +7078,7 @@
     </row>
     <row r="21" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:255" x14ac:dyDescent="0.35">
@@ -7086,10 +7086,10 @@
         <v>19</v>
       </c>
       <c r="B22" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="36" t="s">
         <v>33</v>
-      </c>
-      <c r="C22" s="36" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:255" x14ac:dyDescent="0.35">
@@ -7097,10 +7097,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="29" t="s">
         <v>36</v>
-      </c>
-      <c r="C23" s="29" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:255" x14ac:dyDescent="0.35">
@@ -7367,7 +7367,7 @@
     </row>
     <row r="27" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:255" x14ac:dyDescent="0.35">
@@ -7375,12 +7375,12 @@
         <v>23</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A29" s="29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B29" s="32" t="s">
         <v>22</v>
@@ -7388,10 +7388,10 @@
     </row>
     <row r="30" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A30" s="29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -7733,80 +7733,80 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4" s="14" t="s">
         <v>24</v>
       </c>
       <c r="G4" s="33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:256" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A5" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>61</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>62</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>24</v>
       </c>
       <c r="G5" s="33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H5" s="14"/>
       <c r="I5" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:256" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A6" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>93</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>94</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F6" s="14" t="s">
         <v>24</v>
       </c>
       <c r="G6" s="33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H6" s="14"/>
       <c r="I6" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -8593,7 +8593,7 @@
     </row>
     <row r="11" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A11" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="18" t="s">
         <v>22</v>
@@ -9126,10 +9126,10 @@
         <v>8</v>
       </c>
       <c r="B15" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="28" t="s">
         <v>106</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>107</v>
       </c>
       <c r="D15" s="19"/>
     </row>
@@ -9138,32 +9138,32 @@
         <v>1</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16" s="45"/>
       <c r="D16" s="19"/>
     </row>
     <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A17" s="31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17" s="45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D17" s="19"/>
     </row>
     <row r="18" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A18" s="31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" s="46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D18" s="19"/>
     </row>
@@ -9175,39 +9175,39 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="36" t="s">
+      <c r="D21" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="36" t="s">
+      <c r="E21" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="36" t="s">
+      <c r="F21" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="36" t="s">
+      <c r="G21" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="G21" s="36" t="s">
+      <c r="H21" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="H21" s="36" t="s">
+      <c r="I21" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="I21" s="36" t="s">
+      <c r="J21" s="36" t="s">
         <v>45</v>
-      </c>
-      <c r="J21" s="36" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
@@ -9215,29 +9215,29 @@
         <v>22</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D22" s="32" t="s">
         <v>26</v>
       </c>
       <c r="E22" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="G22" s="37" t="s">
+      <c r="H22" s="37" t="s">
         <v>57</v>
-      </c>
-      <c r="H22" s="37" t="s">
-        <v>58</v>
       </c>
       <c r="I22" s="41"/>
       <c r="J22" s="37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15" x14ac:dyDescent="0.35">
@@ -9248,7 +9248,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
@@ -9256,21 +9256,21 @@
         <v>19</v>
       </c>
       <c r="B25" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="36" t="s">
         <v>33</v>
-      </c>
-      <c r="C25" s="36" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
@@ -9278,7 +9278,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
@@ -9286,31 +9286,31 @@
         <v>19</v>
       </c>
       <c r="B29" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="36" t="s">
+      <c r="D29" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="36" t="s">
+      <c r="E29" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="E29" s="36" t="s">
+      <c r="F29" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="F29" s="36" t="s">
+      <c r="G29" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="G29" s="36" t="s">
+      <c r="H29" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="H29" s="36" t="s">
+      <c r="I29" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="I29" s="36" t="s">
+      <c r="J29" s="36" t="s">
         <v>45</v>
-      </c>
-      <c r="J29" s="36" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
@@ -9318,29 +9318,29 @@
         <v>22</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D30" s="32" t="s">
         <v>1</v>
       </c>
       <c r="E30" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="F30" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="G30" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="G30" s="37" t="s">
+      <c r="H30" s="37" t="s">
         <v>57</v>
-      </c>
-      <c r="H30" s="37" t="s">
-        <v>58</v>
       </c>
       <c r="I30" s="41"/>
       <c r="J30" s="37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="15" x14ac:dyDescent="0.35">
@@ -9351,7 +9351,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:255" x14ac:dyDescent="0.35">
@@ -9359,10 +9359,10 @@
         <v>19</v>
       </c>
       <c r="B33" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="36" t="s">
         <v>33</v>
-      </c>
-      <c r="C33" s="36" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:255" x14ac:dyDescent="0.35">
@@ -9370,10 +9370,10 @@
         <v>22</v>
       </c>
       <c r="B34" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="29" t="s">
         <v>36</v>
-      </c>
-      <c r="C34" s="29" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
@@ -9974,22 +9974,22 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14" t="s">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c r="G4" s="33"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -10520,7 +10520,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -10778,13 +10778,13 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -11042,7 +11042,7 @@
     </row>
     <row r="11" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A11" s="47" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
@@ -11590,7 +11590,7 @@
     </row>
     <row r="18" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/nablarch-handson-app-web/src/test/java/com/nablarch/example/app/web/action/AuthenticationActionRequestTest.xlsx
+++ b/nablarch-handson-app-web/src/test/java/com/nablarch/example/app/web/action/AuthenticationActionRequestTest.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PJ\01.Nablarch\repo\Nablarch\Examples\nablarch-example-web\src\test\java\com\nablarch\example\app\web\action\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C398497-C610-443F-A77A-AF4D3860F07A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="16380" windowHeight="8070" tabRatio="766"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" tabRatio="766" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="setUpDb" sheetId="1" r:id="rId1"/>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="107">
   <si>
     <t>LIST_MAP=user</t>
     <phoneticPr fontId="2"/>
@@ -141,10 +147,6 @@
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>400</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -538,10 +540,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>index</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>5</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -579,11 +577,15 @@
     <t>303</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>403</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
@@ -843,7 +845,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準_testMenus00102Normal" xfId="1"/>
+    <cellStyle name="標準_testMenus00102Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -919,12 +921,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -966,7 +971,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -999,9 +1004,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1034,6 +1056,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1209,7 +1248,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P11"/>
   <sheetViews>
@@ -1243,13 +1282,13 @@
     </row>
     <row r="2" spans="1:16" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="25" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4" s="26"/>
       <c r="C4" s="26"/>
@@ -1269,94 +1308,94 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="C5" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="D5" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="E5" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="E5" s="44" t="s">
+      <c r="F5" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="F5" s="44" t="s">
+      <c r="G5" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="G5" s="44" t="s">
+      <c r="H5" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="H5" s="44" t="s">
+      <c r="I5" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="I5" s="44" t="s">
+      <c r="J5" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="J5" s="44" t="s">
+      <c r="K5" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="K5" s="44" t="s">
+      <c r="L5" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="L5" s="44" t="s">
+      <c r="M5" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="M5" s="28" t="s">
+      <c r="N5" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="N5" s="44" t="s">
+      <c r="O5" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="O5" s="44" t="s">
+      <c r="P5" s="44" t="s">
         <v>87</v>
-      </c>
-      <c r="P5" s="44" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="D8" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="E8" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="F8" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="36" t="s">
+      <c r="G8" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="H8" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="36" t="s">
+      <c r="I8" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="36" t="s">
+      <c r="J8" s="36" t="s">
         <v>44</v>
-      </c>
-      <c r="J8" s="36" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" s="26"/>
       <c r="C10" s="26"/>
@@ -1379,10 +1418,10 @@
         <v>19</v>
       </c>
       <c r="B11" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="36" t="s">
         <v>32</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1398,7 +1437,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:IV18"/>
   <sheetViews>
@@ -1725,13 +1764,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14" t="s">
@@ -1740,7 +1779,7 @@
       <c r="G4" s="33"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -2271,7 +2310,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -2529,13 +2568,13 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -2793,7 +2832,7 @@
     </row>
     <row r="11" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A11" s="47" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
@@ -3082,7 +3121,7 @@
     </row>
     <row r="17" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -3341,7 +3380,7 @@
     </row>
     <row r="18" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -3357,7 +3396,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:IV18"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
@@ -3683,13 +3722,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14" t="s">
@@ -3698,7 +3737,7 @@
       <c r="G4" s="33"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -4229,7 +4268,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -4487,13 +4526,13 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -4751,7 +4790,7 @@
     </row>
     <row r="11" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A11" s="47" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
@@ -5040,7 +5079,7 @@
     </row>
     <row r="17" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -5299,7 +5338,7 @@
     </row>
     <row r="18" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -5315,7 +5354,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:IV30"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
@@ -5641,24 +5680,24 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G4" s="33"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -6445,7 +6484,7 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>22</v>
@@ -6978,10 +7017,10 @@
         <v>8</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D14" s="19"/>
     </row>
@@ -6990,10 +7029,10 @@
         <v>1</v>
       </c>
       <c r="B15" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="38" t="s">
         <v>49</v>
-      </c>
-      <c r="C15" s="38" t="s">
-        <v>50</v>
       </c>
       <c r="D15" s="19"/>
     </row>
@@ -7005,7 +7044,7 @@
     </row>
     <row r="17" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:255" x14ac:dyDescent="0.35">
@@ -7013,31 +7052,31 @@
         <v>19</v>
       </c>
       <c r="B18" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="36" t="s">
+      <c r="D18" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="36" t="s">
+      <c r="E18" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="36" t="s">
+      <c r="F18" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="36" t="s">
+      <c r="G18" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="G18" s="36" t="s">
+      <c r="H18" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="H18" s="36" t="s">
+      <c r="I18" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="I18" s="36" t="s">
+      <c r="J18" s="36" t="s">
         <v>44</v>
-      </c>
-      <c r="J18" s="36" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:255" x14ac:dyDescent="0.35">
@@ -7045,29 +7084,29 @@
         <v>22</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C19" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="40" t="s">
+      <c r="G19" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="F19" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="G19" s="37" t="s">
+      <c r="H19" s="37" t="s">
         <v>56</v>
-      </c>
-      <c r="H19" s="37" t="s">
-        <v>57</v>
       </c>
       <c r="I19" s="41"/>
       <c r="J19" s="37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:255" ht="15" x14ac:dyDescent="0.35">
@@ -7078,7 +7117,7 @@
     </row>
     <row r="21" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:255" x14ac:dyDescent="0.35">
@@ -7086,10 +7125,10 @@
         <v>19</v>
       </c>
       <c r="B22" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="36" t="s">
         <v>32</v>
-      </c>
-      <c r="C22" s="36" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:255" x14ac:dyDescent="0.35">
@@ -7097,10 +7136,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="29" t="s">
         <v>35</v>
-      </c>
-      <c r="C23" s="29" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:255" x14ac:dyDescent="0.35">
@@ -7108,7 +7147,7 @@
     </row>
     <row r="26" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -7367,7 +7406,7 @@
     </row>
     <row r="27" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:255" x14ac:dyDescent="0.35">
@@ -7375,12 +7414,12 @@
         <v>23</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A29" s="29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B29" s="32" t="s">
         <v>22</v>
@@ -7388,10 +7427,10 @@
     </row>
     <row r="30" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A30" s="29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -7407,7 +7446,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:IV36"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
@@ -7733,80 +7772,80 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>24</v>
+        <v>106</v>
       </c>
       <c r="G4" s="33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:256" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A5" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>60</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>61</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>24</v>
+        <v>106</v>
       </c>
       <c r="G5" s="33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H5" s="14"/>
       <c r="I5" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:256" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A6" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>92</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>93</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>24</v>
+        <v>106</v>
       </c>
       <c r="G6" s="33" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H6" s="14"/>
       <c r="I6" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -8593,7 +8632,7 @@
     </row>
     <row r="11" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A11" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B11" s="18" t="s">
         <v>22</v>
@@ -9126,10 +9165,10 @@
         <v>8</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D15" s="19"/>
     </row>
@@ -9138,32 +9177,32 @@
         <v>1</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16" s="45"/>
       <c r="D16" s="19"/>
     </row>
     <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A17" s="31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" s="45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D17" s="19"/>
     </row>
     <row r="18" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A18" s="31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C18" s="46" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D18" s="19"/>
     </row>
@@ -9175,39 +9214,39 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="36" t="s">
+      <c r="D21" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="36" t="s">
+      <c r="E21" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="36" t="s">
+      <c r="F21" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="36" t="s">
+      <c r="G21" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="G21" s="36" t="s">
+      <c r="H21" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="H21" s="36" t="s">
+      <c r="I21" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="I21" s="36" t="s">
+      <c r="J21" s="36" t="s">
         <v>44</v>
-      </c>
-      <c r="J21" s="36" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
@@ -9215,29 +9254,29 @@
         <v>22</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C22" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="40" t="s">
+      <c r="G22" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="F22" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="G22" s="37" t="s">
+      <c r="H22" s="37" t="s">
         <v>56</v>
-      </c>
-      <c r="H22" s="37" t="s">
-        <v>57</v>
       </c>
       <c r="I22" s="41"/>
       <c r="J22" s="37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15" x14ac:dyDescent="0.35">
@@ -9248,7 +9287,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
@@ -9256,21 +9295,21 @@
         <v>19</v>
       </c>
       <c r="B25" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="36" t="s">
         <v>32</v>
-      </c>
-      <c r="C25" s="36" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
@@ -9278,7 +9317,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
@@ -9286,31 +9325,31 @@
         <v>19</v>
       </c>
       <c r="B29" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="36" t="s">
+      <c r="D29" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="36" t="s">
+      <c r="E29" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="E29" s="36" t="s">
+      <c r="F29" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="F29" s="36" t="s">
+      <c r="G29" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="G29" s="36" t="s">
+      <c r="H29" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="H29" s="36" t="s">
+      <c r="I29" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="I29" s="36" t="s">
+      <c r="J29" s="36" t="s">
         <v>44</v>
-      </c>
-      <c r="J29" s="36" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
@@ -9318,29 +9357,29 @@
         <v>22</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D30" s="32" t="s">
         <v>1</v>
       </c>
       <c r="E30" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="F30" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="G30" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="F30" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="G30" s="37" t="s">
+      <c r="H30" s="37" t="s">
         <v>56</v>
-      </c>
-      <c r="H30" s="37" t="s">
-        <v>57</v>
       </c>
       <c r="I30" s="41"/>
       <c r="J30" s="37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="15" x14ac:dyDescent="0.35">
@@ -9351,7 +9390,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:255" x14ac:dyDescent="0.35">
@@ -9359,10 +9398,10 @@
         <v>19</v>
       </c>
       <c r="B33" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="36" t="s">
         <v>32</v>
-      </c>
-      <c r="C33" s="36" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:255" x14ac:dyDescent="0.35">
@@ -9370,15 +9409,15 @@
         <v>22</v>
       </c>
       <c r="B34" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="29" t="s">
         <v>35</v>
-      </c>
-      <c r="C34" s="29" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -9648,7 +9687,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:IV18"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
@@ -9974,22 +10013,22 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G4" s="33"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -10520,7 +10559,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -10778,13 +10817,13 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -11042,7 +11081,7 @@
     </row>
     <row r="11" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A11" s="47" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
@@ -11331,7 +11370,7 @@
     </row>
     <row r="17" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -11590,7 +11629,7 @@
     </row>
     <row r="18" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/nablarch-handson-app-web/src/test/java/com/nablarch/example/app/web/action/AuthenticationActionRequestTest.xlsx
+++ b/nablarch-handson-app-web/src/test/java/com/nablarch/example/app/web/action/AuthenticationActionRequestTest.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PJ\01.Nablarch\repo\Nablarch\Examples\nablarch-example-web\src\test\java\com\nablarch\example\app\web\action\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C398497-C610-443F-A77A-AF4D3860F07A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9FDF8E9-F800-4A52-8E9B-F7FF63E282A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" tabRatio="766" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="766" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="setUpDb" sheetId="1" r:id="rId1"/>
@@ -28,12 +23,23 @@
     <definedName name="Excel_BuiltIn_Sheet_Title_2">"testIndex"</definedName>
     <definedName name="Excel_BuiltIn_Sheet_Title_3">"setUpDb"</definedName>
   </definedNames>
-  <calcPr calcId="92512"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="108">
   <si>
     <t>LIST_MAP=user</t>
     <phoneticPr fontId="2"/>
@@ -560,10 +566,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>// ※ExampleアプリケーションはHTTPメソッドを指定できるように独自拡張を加えている</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>errors.login</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -579,6 +581,14 @@
   </si>
   <si>
     <t>403</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ADMIN_FLAG</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>POST</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -654,7 +664,7 @@
     </font>
     <font>
       <sz val="8"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="メイリオ"/>
       <family val="3"/>
     </font>
@@ -767,7 +777,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -842,6 +852,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1372,24 +1383,27 @@
         <v>37</v>
       </c>
       <c r="D8" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="F8" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="36" t="s">
+      <c r="G8" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="H8" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="36" t="s">
+      <c r="I8" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="36" t="s">
+      <c r="J8" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="J8" s="36" t="s">
+      <c r="K8" s="36" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2831,9 +2845,7 @@
       <c r="IV10" s="17"/>
     </row>
     <row r="11" spans="1:256" x14ac:dyDescent="0.35">
-      <c r="A11" s="47" t="s">
-        <v>101</v>
-      </c>
+      <c r="A11" s="47"/>
     </row>
     <row r="12" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
@@ -4789,9 +4801,7 @@
       <c r="IV10" s="17"/>
     </row>
     <row r="11" spans="1:256" x14ac:dyDescent="0.35">
-      <c r="A11" s="47" t="s">
-        <v>101</v>
-      </c>
+      <c r="A11" s="47"/>
     </row>
     <row r="12" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
@@ -5692,7 +5702,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G4" s="33"/>
       <c r="H4" s="14"/>
@@ -6227,7 +6237,9 @@
       <c r="B9" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="17"/>
+      <c r="C9" s="34" t="s">
+        <v>98</v>
+      </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
@@ -6489,7 +6501,9 @@
       <c r="B10" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="17"/>
+      <c r="C10" s="18" t="s">
+        <v>107</v>
+      </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
@@ -6744,406 +6758,412 @@
       <c r="IU10" s="17"/>
       <c r="IV10" s="17"/>
     </row>
-    <row r="12" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
-      <c r="AA12" s="5"/>
-      <c r="AB12" s="5"/>
-      <c r="AC12" s="5"/>
-      <c r="AD12" s="5"/>
-      <c r="AE12" s="5"/>
-      <c r="AF12" s="5"/>
-      <c r="AG12" s="5"/>
-      <c r="AH12" s="5"/>
-      <c r="AI12" s="5"/>
-      <c r="AJ12" s="5"/>
-      <c r="AK12" s="5"/>
-      <c r="AL12" s="5"/>
-      <c r="AM12" s="5"/>
-      <c r="AN12" s="5"/>
-      <c r="AO12" s="5"/>
-      <c r="AP12" s="5"/>
-      <c r="AQ12" s="5"/>
-      <c r="AR12" s="5"/>
-      <c r="AS12" s="5"/>
-      <c r="AT12" s="5"/>
-      <c r="AU12" s="5"/>
-      <c r="AV12" s="5"/>
-      <c r="AW12" s="5"/>
-      <c r="AX12" s="5"/>
-      <c r="AY12" s="5"/>
-      <c r="AZ12" s="5"/>
-      <c r="BA12" s="5"/>
-      <c r="BB12" s="5"/>
-      <c r="BC12" s="5"/>
-      <c r="BD12" s="5"/>
-      <c r="BE12" s="5"/>
-      <c r="BF12" s="5"/>
-      <c r="BG12" s="5"/>
-      <c r="BH12" s="5"/>
-      <c r="BI12" s="5"/>
-      <c r="BJ12" s="5"/>
-      <c r="BK12" s="5"/>
-      <c r="BL12" s="5"/>
-      <c r="BM12" s="5"/>
-      <c r="BN12" s="5"/>
-      <c r="BO12" s="5"/>
-      <c r="BP12" s="5"/>
-      <c r="BQ12" s="5"/>
-      <c r="BR12" s="5"/>
-      <c r="BS12" s="5"/>
-      <c r="BT12" s="5"/>
-      <c r="BU12" s="5"/>
-      <c r="BV12" s="5"/>
-      <c r="BW12" s="5"/>
-      <c r="BX12" s="5"/>
-      <c r="BY12" s="5"/>
-      <c r="BZ12" s="5"/>
-      <c r="CA12" s="5"/>
-      <c r="CB12" s="5"/>
-      <c r="CC12" s="5"/>
-      <c r="CD12" s="5"/>
-      <c r="CE12" s="5"/>
-      <c r="CF12" s="5"/>
-      <c r="CG12" s="5"/>
-      <c r="CH12" s="5"/>
-      <c r="CI12" s="5"/>
-      <c r="CJ12" s="5"/>
-      <c r="CK12" s="5"/>
-      <c r="CL12" s="5"/>
-      <c r="CM12" s="5"/>
-      <c r="CN12" s="5"/>
-      <c r="CO12" s="5"/>
-      <c r="CP12" s="5"/>
-      <c r="CQ12" s="5"/>
-      <c r="CR12" s="5"/>
-      <c r="CS12" s="5"/>
-      <c r="CT12" s="5"/>
-      <c r="CU12" s="5"/>
-      <c r="CV12" s="5"/>
-      <c r="CW12" s="5"/>
-      <c r="CX12" s="5"/>
-      <c r="CY12" s="5"/>
-      <c r="CZ12" s="5"/>
-      <c r="DA12" s="5"/>
-      <c r="DB12" s="5"/>
-      <c r="DC12" s="5"/>
-      <c r="DD12" s="5"/>
-      <c r="DE12" s="5"/>
-      <c r="DF12" s="5"/>
-      <c r="DG12" s="5"/>
-      <c r="DH12" s="5"/>
-      <c r="DI12" s="5"/>
-      <c r="DJ12" s="5"/>
-      <c r="DK12" s="5"/>
-      <c r="DL12" s="5"/>
-      <c r="DM12" s="5"/>
-      <c r="DN12" s="5"/>
-      <c r="DO12" s="5"/>
-      <c r="DP12" s="5"/>
-      <c r="DQ12" s="5"/>
-      <c r="DR12" s="5"/>
-      <c r="DS12" s="5"/>
-      <c r="DT12" s="5"/>
-      <c r="DU12" s="5"/>
-      <c r="DV12" s="5"/>
-      <c r="DW12" s="5"/>
-      <c r="DX12" s="5"/>
-      <c r="DY12" s="5"/>
-      <c r="DZ12" s="5"/>
-      <c r="EA12" s="5"/>
-      <c r="EB12" s="5"/>
-      <c r="EC12" s="5"/>
-      <c r="ED12" s="5"/>
-      <c r="EE12" s="5"/>
-      <c r="EF12" s="5"/>
-      <c r="EG12" s="5"/>
-      <c r="EH12" s="5"/>
-      <c r="EI12" s="5"/>
-      <c r="EJ12" s="5"/>
-      <c r="EK12" s="5"/>
-      <c r="EL12" s="5"/>
-      <c r="EM12" s="5"/>
-      <c r="EN12" s="5"/>
-      <c r="EO12" s="5"/>
-      <c r="EP12" s="5"/>
-      <c r="EQ12" s="5"/>
-      <c r="ER12" s="5"/>
-      <c r="ES12" s="5"/>
-      <c r="ET12" s="5"/>
-      <c r="EU12" s="5"/>
-      <c r="EV12" s="5"/>
-      <c r="EW12" s="5"/>
-      <c r="EX12" s="5"/>
-      <c r="EY12" s="5"/>
-      <c r="EZ12" s="5"/>
-      <c r="FA12" s="5"/>
-      <c r="FB12" s="5"/>
-      <c r="FC12" s="5"/>
-      <c r="FD12" s="5"/>
-      <c r="FE12" s="5"/>
-      <c r="FF12" s="5"/>
-      <c r="FG12" s="5"/>
-      <c r="FH12" s="5"/>
-      <c r="FI12" s="5"/>
-      <c r="FJ12" s="5"/>
-      <c r="FK12" s="5"/>
-      <c r="FL12" s="5"/>
-      <c r="FM12" s="5"/>
-      <c r="FN12" s="5"/>
-      <c r="FO12" s="5"/>
-      <c r="FP12" s="5"/>
-      <c r="FQ12" s="5"/>
-      <c r="FR12" s="5"/>
-      <c r="FS12" s="5"/>
-      <c r="FT12" s="5"/>
-      <c r="FU12" s="5"/>
-      <c r="FV12" s="5"/>
-      <c r="FW12" s="5"/>
-      <c r="FX12" s="5"/>
-      <c r="FY12" s="5"/>
-      <c r="FZ12" s="5"/>
-      <c r="GA12" s="5"/>
-      <c r="GB12" s="5"/>
-      <c r="GC12" s="5"/>
-      <c r="GD12" s="5"/>
-      <c r="GE12" s="5"/>
-      <c r="GF12" s="5"/>
-      <c r="GG12" s="5"/>
-      <c r="GH12" s="5"/>
-      <c r="GI12" s="5"/>
-      <c r="GJ12" s="5"/>
-      <c r="GK12" s="5"/>
-      <c r="GL12" s="5"/>
-      <c r="GM12" s="5"/>
-      <c r="GN12" s="5"/>
-      <c r="GO12" s="5"/>
-      <c r="GP12" s="5"/>
-      <c r="GQ12" s="5"/>
-      <c r="GR12" s="5"/>
-      <c r="GS12" s="5"/>
-      <c r="GT12" s="5"/>
-      <c r="GU12" s="5"/>
-      <c r="GV12" s="5"/>
-      <c r="GW12" s="5"/>
-      <c r="GX12" s="5"/>
-      <c r="GY12" s="5"/>
-      <c r="GZ12" s="5"/>
-      <c r="HA12" s="5"/>
-      <c r="HB12" s="5"/>
-      <c r="HC12" s="5"/>
-      <c r="HD12" s="5"/>
-      <c r="HE12" s="5"/>
-      <c r="HF12" s="5"/>
-      <c r="HG12" s="5"/>
-      <c r="HH12" s="5"/>
-      <c r="HI12" s="5"/>
-      <c r="HJ12" s="5"/>
-      <c r="HK12" s="5"/>
-      <c r="HL12" s="5"/>
-      <c r="HM12" s="5"/>
-      <c r="HN12" s="5"/>
-      <c r="HO12" s="5"/>
-      <c r="HP12" s="5"/>
-      <c r="HQ12" s="5"/>
-      <c r="HR12" s="5"/>
-      <c r="HS12" s="5"/>
-      <c r="HT12" s="5"/>
-      <c r="HU12" s="5"/>
-      <c r="HV12" s="5"/>
-      <c r="HW12" s="5"/>
-      <c r="HX12" s="5"/>
-      <c r="HY12" s="5"/>
-      <c r="HZ12" s="5"/>
-      <c r="IA12" s="5"/>
-      <c r="IB12" s="5"/>
-      <c r="IC12" s="5"/>
-      <c r="ID12" s="5"/>
-      <c r="IE12" s="5"/>
-      <c r="IF12" s="5"/>
-      <c r="IG12" s="5"/>
-      <c r="IH12" s="5"/>
-      <c r="II12" s="5"/>
-      <c r="IJ12" s="5"/>
-      <c r="IK12" s="5"/>
-      <c r="IL12" s="5"/>
-      <c r="IM12" s="5"/>
-      <c r="IN12" s="5"/>
-      <c r="IO12" s="5"/>
-      <c r="IP12" s="5"/>
-      <c r="IQ12" s="5"/>
-      <c r="IR12" s="5"/>
-      <c r="IS12" s="5"/>
-      <c r="IT12" s="5"/>
-      <c r="IU12" s="5"/>
+    <row r="12" spans="1:256" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="13" spans="1:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
+    <row r="13" spans="1:256" x14ac:dyDescent="0.35">
+      <c r="A13" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" s="36" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="14" spans="1:256" ht="15" x14ac:dyDescent="0.35">
-      <c r="A14" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="D14" s="19"/>
+    <row r="14" spans="1:256" x14ac:dyDescent="0.35">
+      <c r="A14" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="I14" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="J14" s="41"/>
+      <c r="K14" s="37" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="15" spans="1:256" ht="15" x14ac:dyDescent="0.35">
-      <c r="A15" s="31">
-        <v>1</v>
-      </c>
-      <c r="B15" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="38" t="s">
-        <v>49</v>
-      </c>
+      <c r="A15" s="9"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="19"/>
     </row>
-    <row r="16" spans="1:256" ht="15" x14ac:dyDescent="0.35">
-      <c r="A16" s="9"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="19"/>
+    <row r="16" spans="1:256" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="17" spans="1:255" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>50</v>
+      <c r="A17" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:255" x14ac:dyDescent="0.35">
-      <c r="A18" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="H18" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="I18" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="J18" s="36" t="s">
-        <v>44</v>
+      <c r="A18" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:255" x14ac:dyDescent="0.35">
-      <c r="A19" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="32" t="s">
+      <c r="A19" s="39"/>
+    </row>
+    <row r="20" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="5"/>
+      <c r="AG20" s="5"/>
+      <c r="AH20" s="5"/>
+      <c r="AI20" s="5"/>
+      <c r="AJ20" s="5"/>
+      <c r="AK20" s="5"/>
+      <c r="AL20" s="5"/>
+      <c r="AM20" s="5"/>
+      <c r="AN20" s="5"/>
+      <c r="AO20" s="5"/>
+      <c r="AP20" s="5"/>
+      <c r="AQ20" s="5"/>
+      <c r="AR20" s="5"/>
+      <c r="AS20" s="5"/>
+      <c r="AT20" s="5"/>
+      <c r="AU20" s="5"/>
+      <c r="AV20" s="5"/>
+      <c r="AW20" s="5"/>
+      <c r="AX20" s="5"/>
+      <c r="AY20" s="5"/>
+      <c r="AZ20" s="5"/>
+      <c r="BA20" s="5"/>
+      <c r="BB20" s="5"/>
+      <c r="BC20" s="5"/>
+      <c r="BD20" s="5"/>
+      <c r="BE20" s="5"/>
+      <c r="BF20" s="5"/>
+      <c r="BG20" s="5"/>
+      <c r="BH20" s="5"/>
+      <c r="BI20" s="5"/>
+      <c r="BJ20" s="5"/>
+      <c r="BK20" s="5"/>
+      <c r="BL20" s="5"/>
+      <c r="BM20" s="5"/>
+      <c r="BN20" s="5"/>
+      <c r="BO20" s="5"/>
+      <c r="BP20" s="5"/>
+      <c r="BQ20" s="5"/>
+      <c r="BR20" s="5"/>
+      <c r="BS20" s="5"/>
+      <c r="BT20" s="5"/>
+      <c r="BU20" s="5"/>
+      <c r="BV20" s="5"/>
+      <c r="BW20" s="5"/>
+      <c r="BX20" s="5"/>
+      <c r="BY20" s="5"/>
+      <c r="BZ20" s="5"/>
+      <c r="CA20" s="5"/>
+      <c r="CB20" s="5"/>
+      <c r="CC20" s="5"/>
+      <c r="CD20" s="5"/>
+      <c r="CE20" s="5"/>
+      <c r="CF20" s="5"/>
+      <c r="CG20" s="5"/>
+      <c r="CH20" s="5"/>
+      <c r="CI20" s="5"/>
+      <c r="CJ20" s="5"/>
+      <c r="CK20" s="5"/>
+      <c r="CL20" s="5"/>
+      <c r="CM20" s="5"/>
+      <c r="CN20" s="5"/>
+      <c r="CO20" s="5"/>
+      <c r="CP20" s="5"/>
+      <c r="CQ20" s="5"/>
+      <c r="CR20" s="5"/>
+      <c r="CS20" s="5"/>
+      <c r="CT20" s="5"/>
+      <c r="CU20" s="5"/>
+      <c r="CV20" s="5"/>
+      <c r="CW20" s="5"/>
+      <c r="CX20" s="5"/>
+      <c r="CY20" s="5"/>
+      <c r="CZ20" s="5"/>
+      <c r="DA20" s="5"/>
+      <c r="DB20" s="5"/>
+      <c r="DC20" s="5"/>
+      <c r="DD20" s="5"/>
+      <c r="DE20" s="5"/>
+      <c r="DF20" s="5"/>
+      <c r="DG20" s="5"/>
+      <c r="DH20" s="5"/>
+      <c r="DI20" s="5"/>
+      <c r="DJ20" s="5"/>
+      <c r="DK20" s="5"/>
+      <c r="DL20" s="5"/>
+      <c r="DM20" s="5"/>
+      <c r="DN20" s="5"/>
+      <c r="DO20" s="5"/>
+      <c r="DP20" s="5"/>
+      <c r="DQ20" s="5"/>
+      <c r="DR20" s="5"/>
+      <c r="DS20" s="5"/>
+      <c r="DT20" s="5"/>
+      <c r="DU20" s="5"/>
+      <c r="DV20" s="5"/>
+      <c r="DW20" s="5"/>
+      <c r="DX20" s="5"/>
+      <c r="DY20" s="5"/>
+      <c r="DZ20" s="5"/>
+      <c r="EA20" s="5"/>
+      <c r="EB20" s="5"/>
+      <c r="EC20" s="5"/>
+      <c r="ED20" s="5"/>
+      <c r="EE20" s="5"/>
+      <c r="EF20" s="5"/>
+      <c r="EG20" s="5"/>
+      <c r="EH20" s="5"/>
+      <c r="EI20" s="5"/>
+      <c r="EJ20" s="5"/>
+      <c r="EK20" s="5"/>
+      <c r="EL20" s="5"/>
+      <c r="EM20" s="5"/>
+      <c r="EN20" s="5"/>
+      <c r="EO20" s="5"/>
+      <c r="EP20" s="5"/>
+      <c r="EQ20" s="5"/>
+      <c r="ER20" s="5"/>
+      <c r="ES20" s="5"/>
+      <c r="ET20" s="5"/>
+      <c r="EU20" s="5"/>
+      <c r="EV20" s="5"/>
+      <c r="EW20" s="5"/>
+      <c r="EX20" s="5"/>
+      <c r="EY20" s="5"/>
+      <c r="EZ20" s="5"/>
+      <c r="FA20" s="5"/>
+      <c r="FB20" s="5"/>
+      <c r="FC20" s="5"/>
+      <c r="FD20" s="5"/>
+      <c r="FE20" s="5"/>
+      <c r="FF20" s="5"/>
+      <c r="FG20" s="5"/>
+      <c r="FH20" s="5"/>
+      <c r="FI20" s="5"/>
+      <c r="FJ20" s="5"/>
+      <c r="FK20" s="5"/>
+      <c r="FL20" s="5"/>
+      <c r="FM20" s="5"/>
+      <c r="FN20" s="5"/>
+      <c r="FO20" s="5"/>
+      <c r="FP20" s="5"/>
+      <c r="FQ20" s="5"/>
+      <c r="FR20" s="5"/>
+      <c r="FS20" s="5"/>
+      <c r="FT20" s="5"/>
+      <c r="FU20" s="5"/>
+      <c r="FV20" s="5"/>
+      <c r="FW20" s="5"/>
+      <c r="FX20" s="5"/>
+      <c r="FY20" s="5"/>
+      <c r="FZ20" s="5"/>
+      <c r="GA20" s="5"/>
+      <c r="GB20" s="5"/>
+      <c r="GC20" s="5"/>
+      <c r="GD20" s="5"/>
+      <c r="GE20" s="5"/>
+      <c r="GF20" s="5"/>
+      <c r="GG20" s="5"/>
+      <c r="GH20" s="5"/>
+      <c r="GI20" s="5"/>
+      <c r="GJ20" s="5"/>
+      <c r="GK20" s="5"/>
+      <c r="GL20" s="5"/>
+      <c r="GM20" s="5"/>
+      <c r="GN20" s="5"/>
+      <c r="GO20" s="5"/>
+      <c r="GP20" s="5"/>
+      <c r="GQ20" s="5"/>
+      <c r="GR20" s="5"/>
+      <c r="GS20" s="5"/>
+      <c r="GT20" s="5"/>
+      <c r="GU20" s="5"/>
+      <c r="GV20" s="5"/>
+      <c r="GW20" s="5"/>
+      <c r="GX20" s="5"/>
+      <c r="GY20" s="5"/>
+      <c r="GZ20" s="5"/>
+      <c r="HA20" s="5"/>
+      <c r="HB20" s="5"/>
+      <c r="HC20" s="5"/>
+      <c r="HD20" s="5"/>
+      <c r="HE20" s="5"/>
+      <c r="HF20" s="5"/>
+      <c r="HG20" s="5"/>
+      <c r="HH20" s="5"/>
+      <c r="HI20" s="5"/>
+      <c r="HJ20" s="5"/>
+      <c r="HK20" s="5"/>
+      <c r="HL20" s="5"/>
+      <c r="HM20" s="5"/>
+      <c r="HN20" s="5"/>
+      <c r="HO20" s="5"/>
+      <c r="HP20" s="5"/>
+      <c r="HQ20" s="5"/>
+      <c r="HR20" s="5"/>
+      <c r="HS20" s="5"/>
+      <c r="HT20" s="5"/>
+      <c r="HU20" s="5"/>
+      <c r="HV20" s="5"/>
+      <c r="HW20" s="5"/>
+      <c r="HX20" s="5"/>
+      <c r="HY20" s="5"/>
+      <c r="HZ20" s="5"/>
+      <c r="IA20" s="5"/>
+      <c r="IB20" s="5"/>
+      <c r="IC20" s="5"/>
+      <c r="ID20" s="5"/>
+      <c r="IE20" s="5"/>
+      <c r="IF20" s="5"/>
+      <c r="IG20" s="5"/>
+      <c r="IH20" s="5"/>
+      <c r="II20" s="5"/>
+      <c r="IJ20" s="5"/>
+      <c r="IK20" s="5"/>
+      <c r="IL20" s="5"/>
+      <c r="IM20" s="5"/>
+      <c r="IN20" s="5"/>
+      <c r="IO20" s="5"/>
+      <c r="IP20" s="5"/>
+      <c r="IQ20" s="5"/>
+      <c r="IR20" s="5"/>
+      <c r="IS20" s="5"/>
+      <c r="IT20" s="5"/>
+      <c r="IU20" s="5"/>
+    </row>
+    <row r="21" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="1:255" ht="15" x14ac:dyDescent="0.35">
+      <c r="A22" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" s="19"/>
+    </row>
+    <row r="23" spans="1:255" ht="15" x14ac:dyDescent="0.35">
+      <c r="A23" s="31">
+        <v>1</v>
+      </c>
+      <c r="B23" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="F19" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="G19" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="H19" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="I19" s="41"/>
-      <c r="J19" s="37" t="s">
-        <v>46</v>
-      </c>
+      <c r="C23" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="19"/>
     </row>
-    <row r="20" spans="1:255" ht="15" x14ac:dyDescent="0.35">
-      <c r="A20" s="9"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-    </row>
-    <row r="21" spans="1:255" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:255" x14ac:dyDescent="0.35">
-      <c r="A22" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="36" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:255" x14ac:dyDescent="0.35">
-      <c r="A23" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="29" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:255" x14ac:dyDescent="0.35">
-      <c r="A24" s="39"/>
+    <row r="24" spans="1:255" ht="15" x14ac:dyDescent="0.35">
+      <c r="A24" s="9"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="19"/>
     </row>
     <row r="26" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
@@ -7784,7 +7804,7 @@
         <v>47</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G4" s="33" t="s">
         <v>62</v>
@@ -7811,7 +7831,7 @@
         <v>47</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G5" s="33" t="s">
         <v>62</v>
@@ -7838,10 +7858,10 @@
         <v>93</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G6" s="33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H6" s="14"/>
       <c r="I6" s="14" t="s">
@@ -8375,7 +8395,9 @@
       <c r="B10" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="17"/>
+      <c r="C10" s="34" t="s">
+        <v>98</v>
+      </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
@@ -8637,7 +8659,9 @@
       <c r="B11" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="17"/>
+      <c r="C11" s="18" t="s">
+        <v>107</v>
+      </c>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
@@ -8892,528 +8916,540 @@
       <c r="IU11" s="17"/>
       <c r="IV11" s="17"/>
     </row>
-    <row r="13" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="5"/>
-      <c r="AA13" s="5"/>
-      <c r="AB13" s="5"/>
-      <c r="AC13" s="5"/>
-      <c r="AD13" s="5"/>
-      <c r="AE13" s="5"/>
-      <c r="AF13" s="5"/>
-      <c r="AG13" s="5"/>
-      <c r="AH13" s="5"/>
-      <c r="AI13" s="5"/>
-      <c r="AJ13" s="5"/>
-      <c r="AK13" s="5"/>
-      <c r="AL13" s="5"/>
-      <c r="AM13" s="5"/>
-      <c r="AN13" s="5"/>
-      <c r="AO13" s="5"/>
-      <c r="AP13" s="5"/>
-      <c r="AQ13" s="5"/>
-      <c r="AR13" s="5"/>
-      <c r="AS13" s="5"/>
-      <c r="AT13" s="5"/>
-      <c r="AU13" s="5"/>
-      <c r="AV13" s="5"/>
-      <c r="AW13" s="5"/>
-      <c r="AX13" s="5"/>
-      <c r="AY13" s="5"/>
-      <c r="AZ13" s="5"/>
-      <c r="BA13" s="5"/>
-      <c r="BB13" s="5"/>
-      <c r="BC13" s="5"/>
-      <c r="BD13" s="5"/>
-      <c r="BE13" s="5"/>
-      <c r="BF13" s="5"/>
-      <c r="BG13" s="5"/>
-      <c r="BH13" s="5"/>
-      <c r="BI13" s="5"/>
-      <c r="BJ13" s="5"/>
-      <c r="BK13" s="5"/>
-      <c r="BL13" s="5"/>
-      <c r="BM13" s="5"/>
-      <c r="BN13" s="5"/>
-      <c r="BO13" s="5"/>
-      <c r="BP13" s="5"/>
-      <c r="BQ13" s="5"/>
-      <c r="BR13" s="5"/>
-      <c r="BS13" s="5"/>
-      <c r="BT13" s="5"/>
-      <c r="BU13" s="5"/>
-      <c r="BV13" s="5"/>
-      <c r="BW13" s="5"/>
-      <c r="BX13" s="5"/>
-      <c r="BY13" s="5"/>
-      <c r="BZ13" s="5"/>
-      <c r="CA13" s="5"/>
-      <c r="CB13" s="5"/>
-      <c r="CC13" s="5"/>
-      <c r="CD13" s="5"/>
-      <c r="CE13" s="5"/>
-      <c r="CF13" s="5"/>
-      <c r="CG13" s="5"/>
-      <c r="CH13" s="5"/>
-      <c r="CI13" s="5"/>
-      <c r="CJ13" s="5"/>
-      <c r="CK13" s="5"/>
-      <c r="CL13" s="5"/>
-      <c r="CM13" s="5"/>
-      <c r="CN13" s="5"/>
-      <c r="CO13" s="5"/>
-      <c r="CP13" s="5"/>
-      <c r="CQ13" s="5"/>
-      <c r="CR13" s="5"/>
-      <c r="CS13" s="5"/>
-      <c r="CT13" s="5"/>
-      <c r="CU13" s="5"/>
-      <c r="CV13" s="5"/>
-      <c r="CW13" s="5"/>
-      <c r="CX13" s="5"/>
-      <c r="CY13" s="5"/>
-      <c r="CZ13" s="5"/>
-      <c r="DA13" s="5"/>
-      <c r="DB13" s="5"/>
-      <c r="DC13" s="5"/>
-      <c r="DD13" s="5"/>
-      <c r="DE13" s="5"/>
-      <c r="DF13" s="5"/>
-      <c r="DG13" s="5"/>
-      <c r="DH13" s="5"/>
-      <c r="DI13" s="5"/>
-      <c r="DJ13" s="5"/>
-      <c r="DK13" s="5"/>
-      <c r="DL13" s="5"/>
-      <c r="DM13" s="5"/>
-      <c r="DN13" s="5"/>
-      <c r="DO13" s="5"/>
-      <c r="DP13" s="5"/>
-      <c r="DQ13" s="5"/>
-      <c r="DR13" s="5"/>
-      <c r="DS13" s="5"/>
-      <c r="DT13" s="5"/>
-      <c r="DU13" s="5"/>
-      <c r="DV13" s="5"/>
-      <c r="DW13" s="5"/>
-      <c r="DX13" s="5"/>
-      <c r="DY13" s="5"/>
-      <c r="DZ13" s="5"/>
-      <c r="EA13" s="5"/>
-      <c r="EB13" s="5"/>
-      <c r="EC13" s="5"/>
-      <c r="ED13" s="5"/>
-      <c r="EE13" s="5"/>
-      <c r="EF13" s="5"/>
-      <c r="EG13" s="5"/>
-      <c r="EH13" s="5"/>
-      <c r="EI13" s="5"/>
-      <c r="EJ13" s="5"/>
-      <c r="EK13" s="5"/>
-      <c r="EL13" s="5"/>
-      <c r="EM13" s="5"/>
-      <c r="EN13" s="5"/>
-      <c r="EO13" s="5"/>
-      <c r="EP13" s="5"/>
-      <c r="EQ13" s="5"/>
-      <c r="ER13" s="5"/>
-      <c r="ES13" s="5"/>
-      <c r="ET13" s="5"/>
-      <c r="EU13" s="5"/>
-      <c r="EV13" s="5"/>
-      <c r="EW13" s="5"/>
-      <c r="EX13" s="5"/>
-      <c r="EY13" s="5"/>
-      <c r="EZ13" s="5"/>
-      <c r="FA13" s="5"/>
-      <c r="FB13" s="5"/>
-      <c r="FC13" s="5"/>
-      <c r="FD13" s="5"/>
-      <c r="FE13" s="5"/>
-      <c r="FF13" s="5"/>
-      <c r="FG13" s="5"/>
-      <c r="FH13" s="5"/>
-      <c r="FI13" s="5"/>
-      <c r="FJ13" s="5"/>
-      <c r="FK13" s="5"/>
-      <c r="FL13" s="5"/>
-      <c r="FM13" s="5"/>
-      <c r="FN13" s="5"/>
-      <c r="FO13" s="5"/>
-      <c r="FP13" s="5"/>
-      <c r="FQ13" s="5"/>
-      <c r="FR13" s="5"/>
-      <c r="FS13" s="5"/>
-      <c r="FT13" s="5"/>
-      <c r="FU13" s="5"/>
-      <c r="FV13" s="5"/>
-      <c r="FW13" s="5"/>
-      <c r="FX13" s="5"/>
-      <c r="FY13" s="5"/>
-      <c r="FZ13" s="5"/>
-      <c r="GA13" s="5"/>
-      <c r="GB13" s="5"/>
-      <c r="GC13" s="5"/>
-      <c r="GD13" s="5"/>
-      <c r="GE13" s="5"/>
-      <c r="GF13" s="5"/>
-      <c r="GG13" s="5"/>
-      <c r="GH13" s="5"/>
-      <c r="GI13" s="5"/>
-      <c r="GJ13" s="5"/>
-      <c r="GK13" s="5"/>
-      <c r="GL13" s="5"/>
-      <c r="GM13" s="5"/>
-      <c r="GN13" s="5"/>
-      <c r="GO13" s="5"/>
-      <c r="GP13" s="5"/>
-      <c r="GQ13" s="5"/>
-      <c r="GR13" s="5"/>
-      <c r="GS13" s="5"/>
-      <c r="GT13" s="5"/>
-      <c r="GU13" s="5"/>
-      <c r="GV13" s="5"/>
-      <c r="GW13" s="5"/>
-      <c r="GX13" s="5"/>
-      <c r="GY13" s="5"/>
-      <c r="GZ13" s="5"/>
-      <c r="HA13" s="5"/>
-      <c r="HB13" s="5"/>
-      <c r="HC13" s="5"/>
-      <c r="HD13" s="5"/>
-      <c r="HE13" s="5"/>
-      <c r="HF13" s="5"/>
-      <c r="HG13" s="5"/>
-      <c r="HH13" s="5"/>
-      <c r="HI13" s="5"/>
-      <c r="HJ13" s="5"/>
-      <c r="HK13" s="5"/>
-      <c r="HL13" s="5"/>
-      <c r="HM13" s="5"/>
-      <c r="HN13" s="5"/>
-      <c r="HO13" s="5"/>
-      <c r="HP13" s="5"/>
-      <c r="HQ13" s="5"/>
-      <c r="HR13" s="5"/>
-      <c r="HS13" s="5"/>
-      <c r="HT13" s="5"/>
-      <c r="HU13" s="5"/>
-      <c r="HV13" s="5"/>
-      <c r="HW13" s="5"/>
-      <c r="HX13" s="5"/>
-      <c r="HY13" s="5"/>
-      <c r="HZ13" s="5"/>
-      <c r="IA13" s="5"/>
-      <c r="IB13" s="5"/>
-      <c r="IC13" s="5"/>
-      <c r="ID13" s="5"/>
-      <c r="IE13" s="5"/>
-      <c r="IF13" s="5"/>
-      <c r="IG13" s="5"/>
-      <c r="IH13" s="5"/>
-      <c r="II13" s="5"/>
-      <c r="IJ13" s="5"/>
-      <c r="IK13" s="5"/>
-      <c r="IL13" s="5"/>
-      <c r="IM13" s="5"/>
-      <c r="IN13" s="5"/>
-      <c r="IO13" s="5"/>
-      <c r="IP13" s="5"/>
-      <c r="IQ13" s="5"/>
-      <c r="IR13" s="5"/>
-      <c r="IS13" s="5"/>
-      <c r="IT13" s="5"/>
-      <c r="IU13" s="5"/>
+    <row r="13" spans="1:256" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="14" spans="1:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
+    <row r="14" spans="1:256" x14ac:dyDescent="0.35">
+      <c r="A14" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="E14" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="K14" s="36" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="15" spans="1:256" ht="15" x14ac:dyDescent="0.35">
-      <c r="A15" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="D15" s="19"/>
+    <row r="15" spans="1:256" x14ac:dyDescent="0.35">
+      <c r="A15" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15" s="41"/>
+      <c r="K15" s="37" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="16" spans="1:256" ht="15" x14ac:dyDescent="0.35">
-      <c r="A16" s="31">
-        <v>1</v>
-      </c>
-      <c r="B16" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="45"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="19"/>
     </row>
-    <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.35">
-      <c r="A17" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" s="37" t="s">
+    <row r="17" spans="1:255" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:255" x14ac:dyDescent="0.35">
+      <c r="A18" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:255" x14ac:dyDescent="0.35">
+      <c r="A19" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:255" x14ac:dyDescent="0.35">
+      <c r="A20" s="39"/>
+    </row>
+    <row r="21" spans="1:255" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:255" x14ac:dyDescent="0.35">
+      <c r="A22" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="E22" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="I22" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="J22" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="K22" s="36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:255" x14ac:dyDescent="0.35">
+      <c r="A23" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="19"/>
+      <c r="C23" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="H23" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="I23" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="J23" s="41"/>
+      <c r="K23" s="37" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="18" spans="1:10" ht="15" x14ac:dyDescent="0.35">
-      <c r="A18" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="B18" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="D18" s="19"/>
+    <row r="24" spans="1:255" ht="15" x14ac:dyDescent="0.35">
+      <c r="A24" s="9"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
     </row>
-    <row r="19" spans="1:10" ht="15" x14ac:dyDescent="0.35">
-      <c r="A19" s="9"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="19"/>
+    <row r="25" spans="1:255" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>50</v>
+    <row r="26" spans="1:255" x14ac:dyDescent="0.35">
+      <c r="A26" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="36" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="G21" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="H21" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="I21" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="J21" s="36" t="s">
-        <v>44</v>
+    <row r="27" spans="1:255" x14ac:dyDescent="0.35">
+      <c r="A27" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="F22" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="G22" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="H22" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="I22" s="41"/>
-      <c r="J22" s="37" t="s">
-        <v>46</v>
-      </c>
+    <row r="29" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5"/>
+      <c r="AC29" s="5"/>
+      <c r="AD29" s="5"/>
+      <c r="AE29" s="5"/>
+      <c r="AF29" s="5"/>
+      <c r="AG29" s="5"/>
+      <c r="AH29" s="5"/>
+      <c r="AI29" s="5"/>
+      <c r="AJ29" s="5"/>
+      <c r="AK29" s="5"/>
+      <c r="AL29" s="5"/>
+      <c r="AM29" s="5"/>
+      <c r="AN29" s="5"/>
+      <c r="AO29" s="5"/>
+      <c r="AP29" s="5"/>
+      <c r="AQ29" s="5"/>
+      <c r="AR29" s="5"/>
+      <c r="AS29" s="5"/>
+      <c r="AT29" s="5"/>
+      <c r="AU29" s="5"/>
+      <c r="AV29" s="5"/>
+      <c r="AW29" s="5"/>
+      <c r="AX29" s="5"/>
+      <c r="AY29" s="5"/>
+      <c r="AZ29" s="5"/>
+      <c r="BA29" s="5"/>
+      <c r="BB29" s="5"/>
+      <c r="BC29" s="5"/>
+      <c r="BD29" s="5"/>
+      <c r="BE29" s="5"/>
+      <c r="BF29" s="5"/>
+      <c r="BG29" s="5"/>
+      <c r="BH29" s="5"/>
+      <c r="BI29" s="5"/>
+      <c r="BJ29" s="5"/>
+      <c r="BK29" s="5"/>
+      <c r="BL29" s="5"/>
+      <c r="BM29" s="5"/>
+      <c r="BN29" s="5"/>
+      <c r="BO29" s="5"/>
+      <c r="BP29" s="5"/>
+      <c r="BQ29" s="5"/>
+      <c r="BR29" s="5"/>
+      <c r="BS29" s="5"/>
+      <c r="BT29" s="5"/>
+      <c r="BU29" s="5"/>
+      <c r="BV29" s="5"/>
+      <c r="BW29" s="5"/>
+      <c r="BX29" s="5"/>
+      <c r="BY29" s="5"/>
+      <c r="BZ29" s="5"/>
+      <c r="CA29" s="5"/>
+      <c r="CB29" s="5"/>
+      <c r="CC29" s="5"/>
+      <c r="CD29" s="5"/>
+      <c r="CE29" s="5"/>
+      <c r="CF29" s="5"/>
+      <c r="CG29" s="5"/>
+      <c r="CH29" s="5"/>
+      <c r="CI29" s="5"/>
+      <c r="CJ29" s="5"/>
+      <c r="CK29" s="5"/>
+      <c r="CL29" s="5"/>
+      <c r="CM29" s="5"/>
+      <c r="CN29" s="5"/>
+      <c r="CO29" s="5"/>
+      <c r="CP29" s="5"/>
+      <c r="CQ29" s="5"/>
+      <c r="CR29" s="5"/>
+      <c r="CS29" s="5"/>
+      <c r="CT29" s="5"/>
+      <c r="CU29" s="5"/>
+      <c r="CV29" s="5"/>
+      <c r="CW29" s="5"/>
+      <c r="CX29" s="5"/>
+      <c r="CY29" s="5"/>
+      <c r="CZ29" s="5"/>
+      <c r="DA29" s="5"/>
+      <c r="DB29" s="5"/>
+      <c r="DC29" s="5"/>
+      <c r="DD29" s="5"/>
+      <c r="DE29" s="5"/>
+      <c r="DF29" s="5"/>
+      <c r="DG29" s="5"/>
+      <c r="DH29" s="5"/>
+      <c r="DI29" s="5"/>
+      <c r="DJ29" s="5"/>
+      <c r="DK29" s="5"/>
+      <c r="DL29" s="5"/>
+      <c r="DM29" s="5"/>
+      <c r="DN29" s="5"/>
+      <c r="DO29" s="5"/>
+      <c r="DP29" s="5"/>
+      <c r="DQ29" s="5"/>
+      <c r="DR29" s="5"/>
+      <c r="DS29" s="5"/>
+      <c r="DT29" s="5"/>
+      <c r="DU29" s="5"/>
+      <c r="DV29" s="5"/>
+      <c r="DW29" s="5"/>
+      <c r="DX29" s="5"/>
+      <c r="DY29" s="5"/>
+      <c r="DZ29" s="5"/>
+      <c r="EA29" s="5"/>
+      <c r="EB29" s="5"/>
+      <c r="EC29" s="5"/>
+      <c r="ED29" s="5"/>
+      <c r="EE29" s="5"/>
+      <c r="EF29" s="5"/>
+      <c r="EG29" s="5"/>
+      <c r="EH29" s="5"/>
+      <c r="EI29" s="5"/>
+      <c r="EJ29" s="5"/>
+      <c r="EK29" s="5"/>
+      <c r="EL29" s="5"/>
+      <c r="EM29" s="5"/>
+      <c r="EN29" s="5"/>
+      <c r="EO29" s="5"/>
+      <c r="EP29" s="5"/>
+      <c r="EQ29" s="5"/>
+      <c r="ER29" s="5"/>
+      <c r="ES29" s="5"/>
+      <c r="ET29" s="5"/>
+      <c r="EU29" s="5"/>
+      <c r="EV29" s="5"/>
+      <c r="EW29" s="5"/>
+      <c r="EX29" s="5"/>
+      <c r="EY29" s="5"/>
+      <c r="EZ29" s="5"/>
+      <c r="FA29" s="5"/>
+      <c r="FB29" s="5"/>
+      <c r="FC29" s="5"/>
+      <c r="FD29" s="5"/>
+      <c r="FE29" s="5"/>
+      <c r="FF29" s="5"/>
+      <c r="FG29" s="5"/>
+      <c r="FH29" s="5"/>
+      <c r="FI29" s="5"/>
+      <c r="FJ29" s="5"/>
+      <c r="FK29" s="5"/>
+      <c r="FL29" s="5"/>
+      <c r="FM29" s="5"/>
+      <c r="FN29" s="5"/>
+      <c r="FO29" s="5"/>
+      <c r="FP29" s="5"/>
+      <c r="FQ29" s="5"/>
+      <c r="FR29" s="5"/>
+      <c r="FS29" s="5"/>
+      <c r="FT29" s="5"/>
+      <c r="FU29" s="5"/>
+      <c r="FV29" s="5"/>
+      <c r="FW29" s="5"/>
+      <c r="FX29" s="5"/>
+      <c r="FY29" s="5"/>
+      <c r="FZ29" s="5"/>
+      <c r="GA29" s="5"/>
+      <c r="GB29" s="5"/>
+      <c r="GC29" s="5"/>
+      <c r="GD29" s="5"/>
+      <c r="GE29" s="5"/>
+      <c r="GF29" s="5"/>
+      <c r="GG29" s="5"/>
+      <c r="GH29" s="5"/>
+      <c r="GI29" s="5"/>
+      <c r="GJ29" s="5"/>
+      <c r="GK29" s="5"/>
+      <c r="GL29" s="5"/>
+      <c r="GM29" s="5"/>
+      <c r="GN29" s="5"/>
+      <c r="GO29" s="5"/>
+      <c r="GP29" s="5"/>
+      <c r="GQ29" s="5"/>
+      <c r="GR29" s="5"/>
+      <c r="GS29" s="5"/>
+      <c r="GT29" s="5"/>
+      <c r="GU29" s="5"/>
+      <c r="GV29" s="5"/>
+      <c r="GW29" s="5"/>
+      <c r="GX29" s="5"/>
+      <c r="GY29" s="5"/>
+      <c r="GZ29" s="5"/>
+      <c r="HA29" s="5"/>
+      <c r="HB29" s="5"/>
+      <c r="HC29" s="5"/>
+      <c r="HD29" s="5"/>
+      <c r="HE29" s="5"/>
+      <c r="HF29" s="5"/>
+      <c r="HG29" s="5"/>
+      <c r="HH29" s="5"/>
+      <c r="HI29" s="5"/>
+      <c r="HJ29" s="5"/>
+      <c r="HK29" s="5"/>
+      <c r="HL29" s="5"/>
+      <c r="HM29" s="5"/>
+      <c r="HN29" s="5"/>
+      <c r="HO29" s="5"/>
+      <c r="HP29" s="5"/>
+      <c r="HQ29" s="5"/>
+      <c r="HR29" s="5"/>
+      <c r="HS29" s="5"/>
+      <c r="HT29" s="5"/>
+      <c r="HU29" s="5"/>
+      <c r="HV29" s="5"/>
+      <c r="HW29" s="5"/>
+      <c r="HX29" s="5"/>
+      <c r="HY29" s="5"/>
+      <c r="HZ29" s="5"/>
+      <c r="IA29" s="5"/>
+      <c r="IB29" s="5"/>
+      <c r="IC29" s="5"/>
+      <c r="ID29" s="5"/>
+      <c r="IE29" s="5"/>
+      <c r="IF29" s="5"/>
+      <c r="IG29" s="5"/>
+      <c r="IH29" s="5"/>
+      <c r="II29" s="5"/>
+      <c r="IJ29" s="5"/>
+      <c r="IK29" s="5"/>
+      <c r="IL29" s="5"/>
+      <c r="IM29" s="5"/>
+      <c r="IN29" s="5"/>
+      <c r="IO29" s="5"/>
+      <c r="IP29" s="5"/>
+      <c r="IQ29" s="5"/>
+      <c r="IR29" s="5"/>
+      <c r="IS29" s="5"/>
+      <c r="IT29" s="5"/>
+      <c r="IU29" s="5"/>
     </row>
-    <row r="23" spans="1:10" ht="15" x14ac:dyDescent="0.35">
-      <c r="A23" s="9"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
+    <row r="30" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="36" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A26" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" s="29" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A27" s="39"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A29" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="F29" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="G29" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="H29" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="I29" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="J29" s="36" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A30" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="E30" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="F30" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="G30" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="H30" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="I30" s="41"/>
-      <c r="J30" s="37" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="15" x14ac:dyDescent="0.35">
-      <c r="A31" s="9"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
+    <row r="31" spans="1:255" ht="15" x14ac:dyDescent="0.35">
+      <c r="A31" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>103</v>
+      </c>
       <c r="D31" s="19"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
-        <v>95</v>
-      </c>
+    <row r="32" spans="1:255" ht="15" x14ac:dyDescent="0.35">
+      <c r="A32" s="31">
+        <v>1</v>
+      </c>
+      <c r="B32" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="45"/>
+      <c r="D32" s="19"/>
     </row>
-    <row r="33" spans="1:255" x14ac:dyDescent="0.35">
-      <c r="A33" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="B33" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" s="36" t="s">
-        <v>32</v>
-      </c>
+    <row r="33" spans="1:255" ht="15" x14ac:dyDescent="0.35">
+      <c r="A33" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="19"/>
     </row>
-    <row r="34" spans="1:255" x14ac:dyDescent="0.35">
-      <c r="A34" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="B34" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="29" t="s">
-        <v>35</v>
-      </c>
+    <row r="34" spans="1:255" ht="15" x14ac:dyDescent="0.35">
+      <c r="A34" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" s="19"/>
+    </row>
+    <row r="35" spans="1:255" ht="15" x14ac:dyDescent="0.35">
+      <c r="A35" s="9"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="19"/>
     </row>
     <row r="36" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
@@ -10023,7 +10059,7 @@
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G4" s="33"/>
       <c r="H4" s="14"/>
@@ -11080,9 +11116,7 @@
       <c r="IV10" s="17"/>
     </row>
     <row r="11" spans="1:256" x14ac:dyDescent="0.35">
-      <c r="A11" s="47" t="s">
-        <v>101</v>
-      </c>
+      <c r="A11" s="48"/>
     </row>
     <row r="12" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
